--- a/docs/TCC_FIA - MBA Big Data - Dicionário de Dados.xlsx
+++ b/docs/TCC_FIA - MBA Big Data - Dicionário de Dados.xlsx
@@ -1,28 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c75f04c44cd29cf8/Tiago Lucheis/Documentos/My Docs/Studies/Extensão/FIA/MBA Data Engineering/TCC/Entregáveis/Entrega 3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Containers\FIA-TCC\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="418" documentId="8_{2923E219-50A9-43B4-8E8F-BC7328924AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{32DFA0D5-1390-48BF-B7C0-ED59077E944D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7887F29-7069-4B66-B1F1-8BB0C4BD0245}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="1245" windowWidth="38640" windowHeight="15720" xr2:uid="{499F9B29-823A-47FB-83F4-A65FBEC8E48A}"/>
   </bookViews>
   <sheets>
     <sheet name="Games" sheetId="4" r:id="rId1"/>
-    <sheet name="Games_Age_Ratings" sheetId="5" r:id="rId2"/>
-    <sheet name="Games_By_Franchise" sheetId="7" r:id="rId3"/>
-    <sheet name="Games_By_Genre" sheetId="8" r:id="rId4"/>
-    <sheet name="Games_By_Keyword" sheetId="9" r:id="rId5"/>
-    <sheet name="Games_By_Platform" sheetId="10" r:id="rId6"/>
-    <sheet name="Games_By_Themes" sheetId="11" r:id="rId7"/>
-    <sheet name="Game_Modes_By_Game" sheetId="12" r:id="rId8"/>
-    <sheet name="Language_Supports_By_Game" sheetId="13" r:id="rId9"/>
-    <sheet name="Player_Perspective_by_Game" sheetId="14" r:id="rId10"/>
+    <sheet name="Indie_Games" sheetId="15" r:id="rId2"/>
+    <sheet name="Involved_Companies_By_Game" sheetId="16" r:id="rId3"/>
+    <sheet name="Games_Age_Ratings" sheetId="5" r:id="rId4"/>
+    <sheet name="Games_By_Franchise" sheetId="7" r:id="rId5"/>
+    <sheet name="Games_By_Genre" sheetId="8" r:id="rId6"/>
+    <sheet name="Games_By_Keyword" sheetId="9" r:id="rId7"/>
+    <sheet name="Games_By_Platform" sheetId="10" r:id="rId8"/>
+    <sheet name="Games_By_Themes" sheetId="11" r:id="rId9"/>
+    <sheet name="Game_Modes_By_Game" sheetId="12" r:id="rId10"/>
+    <sheet name="Language_Supports_By_Game" sheetId="13" r:id="rId11"/>
+    <sheet name="Player_Perspective_by_Game" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="215">
   <si>
     <t>Campo</t>
   </si>
@@ -116,9 +118,6 @@
     <t>Expansões independentes deste jogo</t>
   </si>
   <si>
-    <t>O status do lançamento dos jogos</t>
-  </si>
-  <si>
     <t>Se for uma versão, este é o jogo principal</t>
   </si>
   <si>
@@ -579,6 +578,120 @@
   </si>
   <si>
     <t>Tipo de Suporte a Idioma (Interface, Audio, Legendas, etc.)</t>
+  </si>
+  <si>
+    <t>company_country</t>
+  </si>
+  <si>
+    <t>company_country_alpha3</t>
+  </si>
+  <si>
+    <t>company_id</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>game_completion_time_100</t>
+  </si>
+  <si>
+    <t>game_completion_time_all_styles</t>
+  </si>
+  <si>
+    <t>game_completion_time_main_plus_sides</t>
+  </si>
+  <si>
+    <t>game_completion_time_main_story</t>
+  </si>
+  <si>
+    <t>game_first_release_date</t>
+  </si>
+  <si>
+    <t>game_followers</t>
+  </si>
+  <si>
+    <t>game_followers_before_release</t>
+  </si>
+  <si>
+    <t>game_status</t>
+  </si>
+  <si>
+    <t>parent_company_id</t>
+  </si>
+  <si>
+    <t>parent_company_name</t>
+  </si>
+  <si>
+    <t>platform_release_date</t>
+  </si>
+  <si>
+    <t>platform_release_year</t>
+  </si>
+  <si>
+    <t>porting</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>supporting</t>
+  </si>
+  <si>
+    <t>trust_indie_games</t>
+  </si>
+  <si>
+    <t>game_version_title</t>
+  </si>
+  <si>
+    <t>BOOLEAN</t>
+  </si>
+  <si>
+    <t>Identificador da Empresa</t>
+  </si>
+  <si>
+    <t>País de origem da Empresa</t>
+  </si>
+  <si>
+    <t>Nome da Empresa</t>
+  </si>
+  <si>
+    <t>Indica se a Empresa desenvolveu o Jogo</t>
+  </si>
+  <si>
+    <t>A categoria do jogo</t>
+  </si>
+  <si>
+    <t>A primeira data de lançamento do jogo</t>
+  </si>
+  <si>
+    <t>Título da versão do jogo</t>
+  </si>
+  <si>
+    <t>Identificador da relação entre a Empresa e o Jogo</t>
+  </si>
+  <si>
+    <t>Identificador da Empresa Controladora desta Empresa</t>
+  </si>
+  <si>
+    <t>Nome da Empresa Controladora desta Empresa</t>
+  </si>
+  <si>
+    <t>Indica se a Empresa publicou o Jogo</t>
+  </si>
+  <si>
+    <t>Indica se a Empresa suportou o desenvolvimento do Jogo</t>
+  </si>
+  <si>
+    <t>Indica se a Empresa fez a portabilidade do Jogo</t>
+  </si>
+  <si>
+    <t>trust_involved_companies_by_game</t>
+  </si>
+  <si>
+    <t>País de origem da Empresa (código Alpha 3)</t>
+  </si>
+  <si>
+    <t>O status do lançamento do jogo</t>
   </si>
 </sst>
 </file>
@@ -677,10 +790,42 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="50">
+  <dxfs count="60">
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="1" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -926,6 +1071,110 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51B766C-4FE1-4063-AFDF-95508F61D7AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+        </a:blip>
+        <a:srcRect l="4556" t="15824" r="3673" b="14354"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168775" y="196850"/>
+          <a:ext cx="2595538" cy="520191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Google Shape;91;p2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3D18DD-C048-420A-9CB4-82F2B7500422}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr preferRelativeResize="0"/>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:alphaModFix/>
+        </a:blip>
+        <a:srcRect l="4556" t="15824" r="3673" b="14354"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4168775" y="196850"/>
+          <a:ext cx="2595538" cy="520191"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2238375</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>15875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1563</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>174116</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Google Shape;91;p2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53D12488-B390-4983-A1B3-76603A746326}"/>
             </a:ext>
           </a:extLst>
@@ -978,7 +1227,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D9F8AD-EF63-41B0-B608-AFDEB65B1380}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91917020-B78B-4847-9DA7-D70F139E0784}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1030,7 +1279,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531086E5-6728-405D-96F2-77A28B9AE61A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F61C8EA5-E09B-4190-860F-86A73772CCD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1082,7 +1331,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F860DB6-FBDB-4E0E-ACC8-678156DDF5EF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6D9F8AD-EF63-41B0-B608-AFDEB65B1380}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1134,7 +1383,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467903AD-CD68-4B55-980E-EAF184D36866}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{531086E5-6728-405D-96F2-77A28B9AE61A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1186,7 +1435,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDAF247-55D9-4F4E-8BCD-10FCBB7D6240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F860DB6-FBDB-4E0E-ACC8-678156DDF5EF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1238,7 +1487,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E66E0DF-FD57-462B-AAAE-D9D1B6270617}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{467903AD-CD68-4B55-980E-EAF184D36866}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1290,7 +1539,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C51B766C-4FE1-4063-AFDF-95508F61D7AB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEDAF247-55D9-4F4E-8BCD-10FCBB7D6240}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1342,7 +1591,7 @@
         <xdr:cNvPr id="2" name="Google Shape;91;p2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EA3D18DD-C048-420A-9CB4-82F2B7500422}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7E66E0DF-FD57-462B-AAAE-D9D1B6270617}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1375,138 +1624,162 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{622CAD3C-1D64-4D1C-910A-1CB389EFD130}" name="Tabela13" displayName="Tabela13" ref="B8:D57" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{622CAD3C-1D64-4D1C-910A-1CB389EFD130}" name="Tabela13" displayName="Tabela13" ref="B8:D57" totalsRowShown="0" headerRowDxfId="59" dataDxfId="58">
   <autoFilter ref="B8:D57" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{D9C5016D-CDD8-4B48-B81F-8C96C9696CF3}" name="Campo" dataDxfId="47"/>
-    <tableColumn id="3" xr3:uid="{3649E446-004D-4C39-959D-C2CCE1CB0ECE}" name="Descrição" dataDxfId="46"/>
-    <tableColumn id="4" xr3:uid="{9135C66B-DAE8-44CC-B7D6-F690111031C0}" name="Tipo" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{D9C5016D-CDD8-4B48-B81F-8C96C9696CF3}" name="Campo" dataDxfId="57"/>
+    <tableColumn id="3" xr3:uid="{3649E446-004D-4C39-959D-C2CCE1CB0ECE}" name="Descrição" dataDxfId="56"/>
+    <tableColumn id="4" xr3:uid="{9135C66B-DAE8-44CC-B7D6-F690111031C0}" name="Tipo" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9A49875D-38C4-47A1-B8E6-82381AFC63E5}" name="Tabela134567891012" displayName="Tabela134567891012" ref="B7:D12" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A3E8AA45-CDED-4DA9-AFA2-55219940888B}" name="Tabela1345678910" displayName="Tabela1345678910" ref="B7:D12" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:D12">
     <sortCondition ref="B7:B12"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{B3481545-4ECB-480F-B848-31C09596434C}" name="Campo" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{AA341D80-89BB-49D4-A38B-E6249BAAC9C0}" name="Descrição" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{00E8712E-8C0D-4BE9-BCA7-4B4FC257D0F2}" name="Tipo" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{E258ADBB-F4F6-45F2-8906-AA2B749C80D3}" name="Campo" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{1F989D2E-BCCF-4E3E-931D-93B255EB188E}" name="Descrição" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{2283CE17-D72C-43AD-A414-C375E6D03D5E}" name="Tipo" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B819D4A8-363C-480A-AAA4-AA8F4E7FC7AB}" name="Tabela134567891011" displayName="Tabela134567891011" ref="B7:D14" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+  <autoFilter ref="B7:D14" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:D10">
+    <sortCondition ref="B7:B10"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{8FF6C535-0AFD-49AC-BC25-4C7A7B5AFB16}" name="Campo" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{BEBB3CA8-8E46-4F3C-B74C-87BF44AD5742}" name="Descrição" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{2E607056-DFA0-438D-9E49-29F37C47D5C9}" name="Tipo" dataDxfId="15"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{9A49875D-38C4-47A1-B8E6-82381AFC63E5}" name="Tabela134567891012" displayName="Tabela134567891012" ref="B7:D12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:D12">
+    <sortCondition ref="B7:B12"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="2" xr3:uid="{B3481545-4ECB-480F-B848-31C09596434C}" name="Campo" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{AA341D80-89BB-49D4-A38B-E6249BAAC9C0}" name="Descrição" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00E8712E-8C0D-4BE9-BCA7-4B4FC257D0F2}" name="Tipo" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01C8A1BF-2C7F-49AF-BDD3-F31E38BEAAC0}" name="Tabela134" displayName="Tabela134" ref="B7:D13" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
-  <autoFilter ref="B7:D13" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{38C850AA-4102-4310-9952-CA2E366EC447}" name="Tabela132" displayName="Tabela132" ref="B8:D42" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="B8:D42" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{348C1DD9-AA19-4417-A0BE-BB6862DF230E}" name="Campo" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{55515D00-E5C4-4A57-BAE1-BF3E29B20D5F}" name="Descrição" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{D5835353-DF51-4FF0-AF9E-DDFCC2D17CD2}" name="Tipo" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{71095EE2-4F58-4121-B261-F7EF6E2A776A}" name="Campo" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{7D5AE442-8BE1-42B8-8A33-1585E7266E94}" name="Descrição" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{862EDC5E-5893-4D27-B5FF-66AB38885CDB}" name="Tipo" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE96A804-E232-4D08-99D0-F9B0AE7E5A03}" name="Tabela1345" displayName="Tabela1345" ref="B7:D13" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
-  <autoFilter ref="B7:D13" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{79A2BC3D-E23C-48B1-9266-F0057CB32777}" name="Tabela13413" displayName="Tabela13413" ref="B7:D23" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="B7:D23" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{5FBB53EC-9CEC-4EEF-8427-08F5A87E37A0}" name="Campo" dataDxfId="37"/>
-    <tableColumn id="3" xr3:uid="{986EE2A6-F616-4384-A44E-EB875E81247E}" name="Descrição" dataDxfId="36"/>
-    <tableColumn id="4" xr3:uid="{60E7A1CD-D23A-4538-A229-C440B6C5E638}" name="Tipo" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{A623ED4C-026A-4411-9542-DEBB6B258C8D}" name="Campo" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7F643127-CBCD-4FF5-B846-354376154A0F}" name="Descrição" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{3EF82556-6E4D-4B34-B51C-F95F354C9223}" name="Tipo" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EB17B774-33E5-488C-A9D2-32C1C6223872}" name="Tabela13456" displayName="Tabela13456" ref="B7:D12" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
-  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{01C8A1BF-2C7F-49AF-BDD3-F31E38BEAAC0}" name="Tabela134" displayName="Tabela134" ref="B7:D13" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="B7:D13" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{52C6EEA2-44A4-4EE2-A3CD-4F33CEC0700D}" name="Campo" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{279AE65A-FF66-4DCC-95A0-C265293FE10A}" name="Descrição" dataDxfId="31"/>
-    <tableColumn id="4" xr3:uid="{4CEE377E-C6E6-4BC6-AD5B-8A488F510E8E}" name="Tipo" dataDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{348C1DD9-AA19-4417-A0BE-BB6862DF230E}" name="Campo" dataDxfId="52"/>
+    <tableColumn id="3" xr3:uid="{55515D00-E5C4-4A57-BAE1-BF3E29B20D5F}" name="Descrição" dataDxfId="51"/>
+    <tableColumn id="4" xr3:uid="{D5835353-DF51-4FF0-AF9E-DDFCC2D17CD2}" name="Tipo" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{14152B21-C766-4569-BDBE-4F6CD4CC618E}" name="Tabela134567" displayName="Tabela134567" ref="B7:D12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
-  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{AE96A804-E232-4D08-99D0-F9B0AE7E5A03}" name="Tabela1345" displayName="Tabela1345" ref="B7:D13" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
+  <autoFilter ref="B7:D13" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{629B82DC-461D-4F35-B5AB-3888FF4CE403}" name="Campo" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{BF37FC19-E377-4C73-9BF0-1B9C44FCCC73}" name="Descrição" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{E7F92048-5BCA-40D0-977A-D8ACD8A8D0E5}" name="Tipo" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{5FBB53EC-9CEC-4EEF-8427-08F5A87E37A0}" name="Campo" dataDxfId="47"/>
+    <tableColumn id="3" xr3:uid="{986EE2A6-F616-4384-A44E-EB875E81247E}" name="Descrição" dataDxfId="46"/>
+    <tableColumn id="4" xr3:uid="{60E7A1CD-D23A-4538-A229-C440B6C5E638}" name="Tipo" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC6F33E1-4795-46EF-88CB-026555D68239}" name="Tabela1345678" displayName="Tabela1345678" ref="B7:D17" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
-  <autoFilter ref="B7:D17" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{EB17B774-33E5-488C-A9D2-32C1C6223872}" name="Tabela13456" displayName="Tabela13456" ref="B7:D12" totalsRowShown="0" headerRowDxfId="44" dataDxfId="43">
+  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{8409BFF9-29F3-4F1E-B984-6BF816552277}" name="Campo" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{369024C3-600B-4C31-9C00-46E691717882}" name="Descrição" dataDxfId="21"/>
-    <tableColumn id="4" xr3:uid="{90FD4068-835A-4022-9BDF-7AD656A6DD6A}" name="Tipo" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{52C6EEA2-44A4-4EE2-A3CD-4F33CEC0700D}" name="Campo" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{279AE65A-FF66-4DCC-95A0-C265293FE10A}" name="Descrição" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{4CEE377E-C6E6-4BC6-AD5B-8A488F510E8E}" name="Tipo" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FEF34B82-3386-4364-8C0F-E6843AD88FA2}" name="Tabela13456789" displayName="Tabela13456789" ref="B7:D12" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{14152B21-C766-4569-BDBE-4F6CD4CC618E}" name="Tabela134567" displayName="Tabela134567" ref="B7:D12" totalsRowShown="0" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{678BCE3D-1078-42C4-8AE1-D6314BC9CB60}" name="Campo" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{8A272A88-895D-4DEB-BA00-BCEC9AD64C9A}" name="Descrição" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{8C4A3CE8-7000-45A9-B7D6-7BBB1D465F2E}" name="Tipo" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{629B82DC-461D-4F35-B5AB-3888FF4CE403}" name="Campo" dataDxfId="37"/>
+    <tableColumn id="3" xr3:uid="{BF37FC19-E377-4C73-9BF0-1B9C44FCCC73}" name="Descrição" dataDxfId="36"/>
+    <tableColumn id="4" xr3:uid="{E7F92048-5BCA-40D0-977A-D8ACD8A8D0E5}" name="Tipo" dataDxfId="35"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{A3E8AA45-CDED-4DA9-AFA2-55219940888B}" name="Tabela1345678910" displayName="Tabela1345678910" ref="B7:D12" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:D12">
-    <sortCondition ref="B7:B12"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DC6F33E1-4795-46EF-88CB-026555D68239}" name="Tabela1345678" displayName="Tabela1345678" ref="B7:D17" totalsRowShown="0" headerRowDxfId="34" dataDxfId="33">
+  <autoFilter ref="B7:D17" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{E258ADBB-F4F6-45F2-8906-AA2B749C80D3}" name="Campo" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{1F989D2E-BCCF-4E3E-931D-93B255EB188E}" name="Descrição" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{2283CE17-D72C-43AD-A414-C375E6D03D5E}" name="Tipo" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{8409BFF9-29F3-4F1E-B984-6BF816552277}" name="Campo" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{369024C3-600B-4C31-9C00-46E691717882}" name="Descrição" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{90FD4068-835A-4022-9BDF-7AD656A6DD6A}" name="Tipo" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{B819D4A8-363C-480A-AAA4-AA8F4E7FC7AB}" name="Tabela134567891011" displayName="Tabela134567891011" ref="B7:D14" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="B7:D14" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B8:D10">
-    <sortCondition ref="B7:B10"/>
-  </sortState>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{FEF34B82-3386-4364-8C0F-E6843AD88FA2}" name="Tabela13456789" displayName="Tabela13456789" ref="B7:D12" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+  <autoFilter ref="B7:D12" xr:uid="{821C9B8F-5FAD-4610-86A5-9AF9387D0289}"/>
   <tableColumns count="3">
-    <tableColumn id="2" xr3:uid="{8FF6C535-0AFD-49AC-BC25-4C7A7B5AFB16}" name="Campo" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{BEBB3CA8-8E46-4F3C-B74C-87BF44AD5742}" name="Descrição" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{2E607056-DFA0-438D-9E49-29F37C47D5C9}" name="Tipo" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{678BCE3D-1078-42C4-8AE1-D6314BC9CB60}" name="Campo" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{8A272A88-895D-4DEB-BA00-BCEC9AD64C9A}" name="Descrição" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{8C4A3CE8-7000-45A9-B7D6-7BBB1D465F2E}" name="Tipo" dataDxfId="25"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1544,7 +1817,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1650,7 +1923,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1792,7 +2065,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1803,8 +2076,8 @@
   <dimension ref="B2:D57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C41" sqref="C41"/>
+      <pane ySplit="8" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C49" sqref="C49:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1820,10 +2093,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -1831,24 +2104,24 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="10"/>
       <c r="C5" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B6" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
@@ -1864,10 +2137,10 @@
     </row>
     <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>4</v>
@@ -1875,10 +2148,10 @@
     </row>
     <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>4</v>
@@ -1886,7 +2159,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>8</v>
@@ -1897,7 +2170,7 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
@@ -1908,7 +2181,7 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>10</v>
@@ -1919,10 +2192,10 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -1930,10 +2203,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>3</v>
@@ -1941,10 +2214,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>3</v>
@@ -1952,10 +2225,10 @@
     </row>
     <row r="17" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -1963,10 +2236,10 @@
     </row>
     <row r="18" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B18" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>3</v>
@@ -1974,10 +2247,10 @@
     </row>
     <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B19" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>3</v>
@@ -1985,10 +2258,10 @@
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B20" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>3</v>
@@ -1996,10 +2269,10 @@
     </row>
     <row r="21" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B21" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>3</v>
@@ -2007,10 +2280,10 @@
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B22" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
@@ -2018,10 +2291,10 @@
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B23" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>3</v>
@@ -2029,10 +2302,10 @@
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B24" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>3</v>
@@ -2040,10 +2313,10 @@
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B25" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>3</v>
@@ -2051,10 +2324,10 @@
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B26" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>3</v>
@@ -2062,10 +2335,10 @@
     </row>
     <row r="27" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B27" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>3</v>
@@ -2073,10 +2346,10 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B28" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>3</v>
@@ -2084,10 +2357,10 @@
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B29" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>5</v>
@@ -2095,10 +2368,10 @@
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B30" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>5</v>
@@ -2106,7 +2379,7 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>11</v>
@@ -2117,7 +2390,7 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B32" s="7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>12</v>
@@ -2128,7 +2401,7 @@
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B33" s="7" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>13</v>
@@ -2139,7 +2412,7 @@
     </row>
     <row r="34" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B34" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>14</v>
@@ -2150,7 +2423,7 @@
     </row>
     <row r="35" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B35" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>15</v>
@@ -2161,10 +2434,10 @@
     </row>
     <row r="36" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B36" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>3</v>
@@ -2172,10 +2445,10 @@
     </row>
     <row r="37" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B37" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>7</v>
@@ -2183,7 +2456,7 @@
     </row>
     <row r="38" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B38" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>16</v>
@@ -2194,7 +2467,7 @@
     </row>
     <row r="39" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B39" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>17</v>
@@ -2205,10 +2478,10 @@
     </row>
     <row r="40" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B40" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>3</v>
@@ -2216,10 +2489,10 @@
     </row>
     <row r="41" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B41" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>5</v>
@@ -2227,7 +2500,7 @@
     </row>
     <row r="42" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B42" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>18</v>
@@ -2238,10 +2511,10 @@
     </row>
     <row r="43" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B43" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>7</v>
@@ -2249,10 +2522,10 @@
     </row>
     <row r="44" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B44" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>4</v>
@@ -2260,10 +2533,10 @@
     </row>
     <row r="45" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B45" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>4</v>
@@ -2271,10 +2544,10 @@
     </row>
     <row r="46" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B46" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D46" s="3" t="s">
         <v>4</v>
@@ -2282,10 +2555,10 @@
     </row>
     <row r="47" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B47" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>4</v>
@@ -2293,10 +2566,10 @@
     </row>
     <row r="48" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B48" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>4</v>
@@ -2304,10 +2577,10 @@
     </row>
     <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D49" s="3" t="s">
         <v>4</v>
@@ -2315,10 +2588,10 @@
     </row>
     <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D50" s="3" t="s">
         <v>4</v>
@@ -2326,7 +2599,7 @@
     </row>
     <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>19</v>
@@ -2337,7 +2610,7 @@
     </row>
     <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>20</v>
@@ -2348,7 +2621,7 @@
     </row>
     <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>21</v>
@@ -2359,7 +2632,7 @@
     </row>
     <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>22</v>
@@ -2370,10 +2643,10 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B55" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>23</v>
+        <v>214</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>5</v>
@@ -2381,10 +2654,10 @@
     </row>
     <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>3</v>
@@ -2392,10 +2665,10 @@
     </row>
     <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>5</v>
@@ -2417,12 +2690,12 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B955CC98-6794-4101-94E3-BFB331C35A24}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E179560-79B0-4D9C-8AAD-BC6136575474}">
   <dimension ref="B2:D12"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2438,10 +2711,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -2449,18 +2722,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -2476,7 +2749,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -2487,10 +2760,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -2498,10 +2771,286 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>28</v>
+        <v>159</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{2E8EF980-ABA0-46E3-A011-B45C72D51AD3}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{76F2AB48-41BF-41D7-93F2-125505621650}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F9D30-38A5-4BED-9620-302E49DF056E}">
+  <dimension ref="B2:D14"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{B123D651-4324-4D2C-9B9B-A19B9CDBFCF7}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F18725CD-ECB8-4E16-9158-48CADFE6CF8A}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B955CC98-6794-4101-94E3-BFB331C35A24}">
+  <dimension ref="B2:D12"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F37" sqref="F37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2509,21 +3058,21 @@
     </row>
     <row r="11" spans="2:4" ht="29" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C12" s="2" t="s">
         <v>175</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2544,6 +3093,705 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{281DE083-BCEE-48EF-A0BD-A35737706429}">
+  <dimension ref="B2:D42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="10"/>
+      <c r="C5" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B24" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B25" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B27" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B28" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B29" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B30" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B31" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B33" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B34" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B35" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B36" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B37" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B38" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="D38" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B39" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" ht="29" x14ac:dyDescent="0.35">
+      <c r="B40" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="D40" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B41" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B42" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{2CD381A1-C978-4947-849A-3F15B0229FAB}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{D107E678-DD97-46C3-9E86-5595F33F9B82}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{7435587D-5404-4358-8972-9027354FD2E9}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <drawing r:id="rId5"/>
+  <tableParts count="1">
+    <tablePart r:id="rId6"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BDC5295-58C2-43FE-8CCA-0F058A3E72F4}">
+  <dimension ref="B2:D23"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21:D23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="24" style="1" customWidth="1"/>
+    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.7265625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="8"/>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B18" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B19" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B20" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B21" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B22" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B23" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{CE9B76E8-E3C4-4D08-B2E4-A51111382033}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{7BAA628B-2512-4E6D-A660-795963ED33D8}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22111000-6B84-4C06-B9E2-46852F49ECCD}">
   <dimension ref="B2:D13"/>
   <sheetViews>
@@ -2565,10 +3813,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -2576,18 +3824,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -2603,10 +3851,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>5</v>
@@ -2614,10 +3862,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2625,10 +3873,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>3</v>
@@ -2636,7 +3884,7 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
@@ -2647,10 +3895,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>3</v>
@@ -2658,10 +3906,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -2681,7 +3929,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{364B4561-725A-4456-8927-0BA549DFD21F}">
   <dimension ref="B2:D13"/>
   <sheetViews>
@@ -2703,10 +3951,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -2714,18 +3962,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -2741,10 +3989,10 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>3</v>
@@ -2752,10 +4000,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>5</v>
@@ -2763,7 +4011,7 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
@@ -2774,10 +4022,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -2785,10 +4033,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2796,10 +4044,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>129</v>
+        <v>125</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>128</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>3</v>
@@ -2819,7 +4067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0F190FF-47F9-4BA7-A8C6-719DD7BDA8AB}">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -2841,10 +4089,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -2852,18 +4100,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -2879,7 +4127,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -2890,10 +4138,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -2901,10 +4149,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -2912,10 +4160,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>133</v>
+        <v>130</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>132</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -2923,10 +4171,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>133</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -2946,7 +4194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B5D8F0E-CAC9-4520-A5E7-504B22DEFFC4}">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -2968,10 +4216,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -2979,18 +4227,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -3006,7 +4254,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -3017,10 +4265,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -3028,10 +4276,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3039,10 +4287,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>138</v>
+        <v>135</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -3050,10 +4298,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -3073,13 +4321,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{607FF40B-D432-415D-8B8F-9F7F00197364}">
   <dimension ref="B2:D17"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3095,10 +4343,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -3106,18 +4354,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -3133,7 +4381,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -3144,10 +4392,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -3155,10 +4403,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3166,10 +4414,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>152</v>
+        <v>139</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>5</v>
@@ -3177,10 +4425,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
-        <v>141</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>151</v>
+        <v>140</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -3188,10 +4436,10 @@
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B13" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>150</v>
+        <v>141</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>5</v>
@@ -3199,10 +4447,10 @@
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B14" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>146</v>
+        <v>142</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>145</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>3</v>
@@ -3210,10 +4458,10 @@
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B15" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="12" t="s">
-        <v>149</v>
+        <v>143</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>5</v>
@@ -3221,10 +4469,10 @@
     </row>
     <row r="16" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B16" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>146</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>6</v>
@@ -3232,10 +4480,10 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B17" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="12" t="s">
-        <v>148</v>
+        <v>125</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>147</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>3</v>
@@ -3255,7 +4503,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3300981-E82C-4340-8E75-142BB9FD270D}">
   <dimension ref="B2:D12"/>
   <sheetViews>
@@ -3277,10 +4525,10 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B2" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.35">
@@ -3288,18 +4536,18 @@
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B4" s="9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B5" s="11" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.35">
@@ -3315,7 +4563,7 @@
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B8" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
@@ -3326,10 +4574,10 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B9" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>3</v>
@@ -3337,10 +4585,10 @@
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B10" s="7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>5</v>
@@ -3348,10 +4596,10 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B11" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C11" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>156</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>3</v>
@@ -3359,10 +4607,10 @@
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B12" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>157</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>158</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>5</v>
@@ -3380,280 +4628,4 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E179560-79B0-4D9C-8AAD-BC6136575474}">
-  <dimension ref="B2:D12"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B9" sqref="B9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{2E8EF980-ABA0-46E3-A011-B45C72D51AD3}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{76F2AB48-41BF-41D7-93F2-125505621650}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{440F9D30-38A5-4BED-9620-302E49DF056E}">
-  <dimension ref="B2:D14"/>
-  <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="7" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="3.6328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="56.1796875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="12.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="1"/>
-    <col min="7" max="7" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.7265625" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B2" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="8"/>
-    </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C12" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="C13" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" location="game" display="Tabela: Games" xr:uid="{B123D651-4324-4D2C-9B9B-A19B9CDBFCF7}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{F18725CD-ECB8-4E16-9158-48CADFE6CF8A}"/>
-  </hyperlinks>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
-  <drawing r:id="rId4"/>
-  <tableParts count="1">
-    <tablePart r:id="rId5"/>
-  </tableParts>
-</worksheet>
 </file>